--- a/Ensemble(Final)/OutputFile/Output.xlsx
+++ b/Ensemble(Final)/OutputFile/Output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>File_Path</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>C:/Users/anura/Documents/Github/Face-Anti-Spoofing_using_CNN/Ensemble(Final)/test_img_folder/WhatsApp Image 2023-06-17 at 17.48.21.jpeg</t>
+  </si>
+  <si>
+    <t>C:/Users/anura/Documents/Github/Face-Anti-Spoofing_using_CNN/Ensemble(Final)/test_img_folder/attack_client001_session01_mattescreen_fixed_mobile_photo_lightoff.mov</t>
+  </si>
+  <si>
+    <t>C:/Users/anura/Documents/Github/Face-Anti-Spoofing_using_CNN/Ensemble(Final)/test_img_folder/attack_client001_session01_mattescreen_fixed_mobile_photo_lighton.mov</t>
+  </si>
+  <si>
+    <t>C:/Users/anura/Documents/Github/Face-Anti-Spoofing_using_CNN/Ensemble(Final)/test_img_folder/attack_client001_session01_mattescreen_fixed_mobile_video_lightoff.mov</t>
   </si>
   <si>
     <t>train</t>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>0.2989973127841949</v>
@@ -500,7 +509,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0.7961792349815369</v>
@@ -535,7 +544,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0.9801304936408997</v>
@@ -570,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0.9913364052772522</v>
@@ -597,6 +606,111 @@
         <v>0.6971061825752258</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>0.9996773600578308</v>
+      </c>
+      <c r="D6">
+        <v>0.7731489539146423</v>
+      </c>
+      <c r="E6">
+        <v>0.7731489539146423</v>
+      </c>
+      <c r="F6">
+        <v>0.7731489539146423</v>
+      </c>
+      <c r="G6">
+        <v>0.5105141401290894</v>
+      </c>
+      <c r="H6">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I6">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J6">
+        <v>0.6917009949684143</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>0.9999977350234985</v>
+      </c>
+      <c r="D7">
+        <v>0.5815093517303467</v>
+      </c>
+      <c r="E7">
+        <v>0.5815093517303467</v>
+      </c>
+      <c r="F7">
+        <v>0.5815093517303467</v>
+      </c>
+      <c r="G7">
+        <v>0.4111035466194153</v>
+      </c>
+      <c r="H7">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="I7">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J7">
+        <v>0.8631842732429504</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0.9999526143074036</v>
+      </c>
+      <c r="D8">
+        <v>0.8934416174888611</v>
+      </c>
+      <c r="E8">
+        <v>0.8934416174888611</v>
+      </c>
+      <c r="F8">
+        <v>0.8934416174888611</v>
+      </c>
+      <c r="G8">
+        <v>0.4091626703739166</v>
+      </c>
+      <c r="H8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I8">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="J8">
+        <v>0.6111392974853516</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
     </row>
